--- a/medicine/Enfance/Ouragan_sur_le_lac/Ouragan_sur_le_lac.xlsx
+++ b/medicine/Enfance/Ouragan_sur_le_lac/Ouragan_sur_le_lac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ouragan sur le lac (The Wide Window) est le troisième tome de la série Les Désastreuses Aventures des orphelins Baudelaire par Lemony Snicket
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois enfants se rendent au lac Chaudelarmes, pour habiter chez leur tante Agrippine Amberlu qui est une vraie mordue d'orthographe et de grammaire. La tante en question a peur de tout et de n'importe quoi : du canapé (qui pourrait « s'effondrer en vous transformant en galette ») au téléphone (qui pourrait « vous électrocuter ») en passant par les poignées des portes (qui pourraient « exploser, et un éclat dans l'œil, c'est si vite arrivé ») et surtout au fourneau (qui pourrait créer des incendies).
 Mais un ouragan se prépare, et, alors qu'ils font des courses, Violette, Klaus et Prunille voient le comte Olaf revenir dans leurs vies. Celui-ci se fait appeler capitaine Sham, et, pour camoufler le tatouage de sa cheville, il porte une jambe de bois. Ceci lui permet également d'attendrir tante Agrippine à qui il dit avoir perdu sa jambe à cause des sangsues du lac (elle-même a perdu son mari Ignace dans les mêmes circonstances). Lorsque les enfants tentent de l'informer de la véritable identité du capitaine, elle refuse d'entendre quoi que ce soit.
@@ -548,7 +562,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2004, le roman est adapté au cinéma dans le long-métrage Les Désastreuses Aventures des Orphelins Baudelaire de Brad Silberling, aux côtés du premier et du deuxième tomes. 
 En 2017, la série télévisée Les Désastreuses Aventures des Orphelins Baudelaire adapte également le roman dans le cinquième et sixième épisodes de la première saison.
